--- a/fuentes/contenidos/grado11/guion02/SolicitudGrafica-MA_11_02_CO_REC170.xlsx
+++ b/fuentes/contenidos/grado11/guion02/SolicitudGrafica-MA_11_02_CO_REC170.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="168">
   <si>
     <t>Fecha:</t>
   </si>
@@ -570,10 +570,13 @@
     <t>La misma IMG04, grafica de f(x)=sec(x)</t>
   </si>
   <si>
-    <t>Grafica de la funcion cosecante de x, que en el eje X, los valores no vayan de 1 en1, sino que sean pi/2, pi, 3pi/2 y 2pi, tanto en la parte positiva como en el lado negativo   -pi/2, -pi, -3pi/2 y -2p, señalar la asintotas</t>
-  </si>
-  <si>
     <t>La misma IMG07, grafica de f(x)=csc(x)</t>
+  </si>
+  <si>
+    <t>Grafica de la funcion cosecante de x, que en el eje X, los valores no vayan de 1 en1, sino que sean pi/2, pi, 3pi/2 y 2pi, tanto en la parte positiva como en el lado negativo   -pi/2, -pi, -3pi/2 y -2p, señalar la asintotas OJO:CAMBIAR ETIQUETA</t>
+  </si>
+  <si>
+    <t>CAMBIAR ETIQUETA</t>
   </si>
 </sst>
 </file>
@@ -725,7 +728,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -769,6 +772,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1285,7 +1300,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1468,6 +1483,9 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1552,8 +1570,40 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -2594,9 +2644,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2634,14 +2684,14 @@
       <c r="B2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="78"/>
-      <c r="F2" s="70" t="s">
+      <c r="D2" s="79"/>
+      <c r="F2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="71"/>
+      <c r="G2" s="72"/>
       <c r="H2" s="42"/>
       <c r="I2" s="42"/>
       <c r="J2" s="16"/>
@@ -2651,12 +2701,12 @@
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="79">
+      <c r="C3" s="80">
         <v>11</v>
       </c>
-      <c r="D3" s="80"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="73"/>
+      <c r="D3" s="81"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="74"/>
       <c r="H3" s="42"/>
       <c r="I3" s="42"/>
       <c r="J3" s="16"/>
@@ -2666,10 +2716,10 @@
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="80" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="80"/>
+      <c r="D4" s="81"/>
       <c r="E4" s="5"/>
       <c r="F4" s="41" t="s">
         <v>55</v>
@@ -2687,10 +2737,10 @@
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="81" t="s">
+      <c r="C5" s="82" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="82"/>
+      <c r="D5" s="83"/>
       <c r="E5" s="5"/>
       <c r="F5" s="39" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
@@ -2741,12 +2791,12 @@
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="74" t="s">
+      <c r="F8" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="77"/>
       <c r="J8" s="18"/>
       <c r="K8" s="12"/>
       <c r="L8" s="2"/>
@@ -2780,7 +2830,7 @@
       <c r="H9" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="101" t="s">
+      <c r="I9" s="70" t="s">
         <v>121</v>
       </c>
       <c r="J9" s="68" t="s">
@@ -2791,75 +2841,76 @@
       </c>
     </row>
     <row r="10" spans="1:16" s="12" customFormat="1" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="102" t="s">
         <v>142</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="103" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="22" t="str">
+      <c r="C10" s="104" t="str">
         <f>IF(OR(B10&lt;&gt;"",K10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Recurso M5A</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="105" t="s">
         <v>145</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="105" t="s">
         <v>146</v>
       </c>
-      <c r="F10" s="14" t="str">
+      <c r="F10" s="105" t="str">
         <f>IF(OR(B10&lt;&gt;"",K10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>MA_11_02_REC170_IMG01n.png</v>
       </c>
-      <c r="G10" s="14" t="str">
+      <c r="G10" s="105" t="str">
         <f>IF(F10&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>286 x 286 px</v>
       </c>
-      <c r="H10" s="14" t="str">
+      <c r="H10" s="105" t="str">
         <f>IF(AND(I10&lt;&gt;"",I10&lt;&gt;0),IF(OR(B10&lt;&gt;"",K10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>MA_11_02_REC170_IMG01a.png</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="105" t="s">
         <v>158</v>
       </c>
-      <c r="K10" s="66" t="s">
+      <c r="J10" s="106"/>
+      <c r="K10" s="107" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="12" customFormat="1" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="102" t="s">
         <v>150</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="103" t="s">
         <v>149</v>
       </c>
-      <c r="C11" s="22" t="str">
-        <f t="shared" ref="C11:C19" si="0">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+      <c r="C11" s="104" t="str">
+        <f t="shared" ref="C11:C18" si="0">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Recurso M5A</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="105" t="s">
         <v>145</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="105" t="s">
         <v>146</v>
       </c>
-      <c r="F11" s="14" t="str">
-        <f t="shared" ref="F11:F19" si="1">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+      <c r="F11" s="105" t="str">
+        <f t="shared" ref="F11:F18" si="1">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>MA_11_02_REC170_IMG02n.png</v>
       </c>
-      <c r="G11" s="14" t="str">
+      <c r="G11" s="105" t="str">
         <f>IF(F11&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>286 x 286 px</v>
       </c>
-      <c r="H11" s="14" t="str">
-        <f t="shared" ref="H11:H19" si="2">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+      <c r="H11" s="105" t="str">
+        <f t="shared" ref="H11:H18" si="2">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>MA_11_02_REC170_IMG02a.png</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="105" t="s">
         <v>158</v>
       </c>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66" t="s">
+      <c r="J11" s="107"/>
+      <c r="K11" s="107" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2901,226 +2952,230 @@
       <c r="K12" s="69"/>
     </row>
     <row r="13" spans="1:16" s="12" customFormat="1" ht="201" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="102" t="s">
         <v>152</v>
       </c>
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="103" t="s">
         <v>149</v>
       </c>
-      <c r="C13" s="22" t="str">
+      <c r="C13" s="104" t="str">
         <f t="shared" si="0"/>
         <v>Recurso M5A</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="105" t="s">
         <v>145</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="105" t="s">
         <v>146</v>
       </c>
-      <c r="F13" s="14" t="str">
+      <c r="F13" s="105" t="str">
         <f t="shared" si="1"/>
         <v>MA_11_02_REC170_IMG04n.png</v>
       </c>
-      <c r="G13" s="14" t="str">
+      <c r="G13" s="105" t="str">
         <f>IF(F13&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>286 x 286 px</v>
       </c>
-      <c r="H13" s="14" t="str">
+      <c r="H13" s="105" t="str">
         <f t="shared" si="2"/>
         <v>MA_11_02_REC170_IMG04a.png</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="I13" s="105" t="s">
         <v>158</v>
       </c>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66" t="s">
+      <c r="J13" s="107"/>
+      <c r="K13" s="107" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="12" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="102" t="s">
         <v>153</v>
       </c>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="103" t="s">
         <v>149</v>
       </c>
-      <c r="C14" s="22" t="str">
+      <c r="C14" s="104" t="str">
         <f t="shared" si="0"/>
         <v>Recurso M5A</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="105" t="s">
         <v>145</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="105" t="s">
         <v>146</v>
       </c>
-      <c r="F14" s="14" t="str">
+      <c r="F14" s="105" t="str">
         <f t="shared" si="1"/>
         <v>MA_11_02_REC170_IMG05n.png</v>
       </c>
-      <c r="G14" s="14" t="str">
+      <c r="G14" s="105" t="str">
         <f>IF(F14&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>286 x 286 px</v>
       </c>
-      <c r="H14" s="14" t="str">
+      <c r="H14" s="105" t="str">
         <f t="shared" si="2"/>
         <v>MA_11_02_REC170_IMG05a.png</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="105" t="s">
         <v>158</v>
       </c>
-      <c r="J14" s="66" t="s">
+      <c r="J14" s="107" t="s">
         <v>164</v>
       </c>
-      <c r="K14" s="69"/>
+      <c r="K14" s="108"/>
     </row>
     <row r="15" spans="1:16" s="12" customFormat="1" ht="218.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="102" t="s">
         <v>154</v>
       </c>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="103" t="s">
         <v>149</v>
       </c>
-      <c r="C15" s="22" t="str">
+      <c r="C15" s="104" t="str">
         <f t="shared" si="0"/>
         <v>Recurso M5A</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="105" t="s">
         <v>145</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="105" t="s">
         <v>146</v>
       </c>
-      <c r="F15" s="14" t="str">
+      <c r="F15" s="105" t="str">
         <f t="shared" si="1"/>
         <v>MA_11_02_REC170_IMG06n.png</v>
       </c>
-      <c r="G15" s="14" t="str">
+      <c r="G15" s="105" t="str">
         <f>IF(F15&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>286 x 286 px</v>
       </c>
-      <c r="H15" s="14" t="str">
+      <c r="H15" s="105" t="str">
         <f t="shared" si="2"/>
         <v>MA_11_02_REC170_IMG06a.png</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="I15" s="105" t="s">
         <v>158</v>
       </c>
-      <c r="J15" s="66" t="s">
+      <c r="J15" s="107" t="s">
         <v>164</v>
       </c>
-      <c r="K15" s="69"/>
+      <c r="K15" s="108"/>
     </row>
     <row r="16" spans="1:16" s="12" customFormat="1" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="109" t="s">
         <v>155</v>
       </c>
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="110" t="s">
         <v>149</v>
       </c>
-      <c r="C16" s="22" t="str">
+      <c r="C16" s="111" t="str">
         <f t="shared" si="0"/>
         <v>Recurso M5A</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="112" t="s">
         <v>145</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="112" t="s">
         <v>146</v>
       </c>
-      <c r="F16" s="14" t="str">
+      <c r="F16" s="112" t="str">
         <f t="shared" si="1"/>
         <v>MA_11_02_REC170_IMG07n.png</v>
       </c>
-      <c r="G16" s="14" t="str">
+      <c r="G16" s="112" t="str">
         <f>IF(F16&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>286 x 286 px</v>
       </c>
-      <c r="H16" s="14" t="str">
+      <c r="H16" s="112" t="str">
         <f t="shared" si="2"/>
         <v>MA_11_02_REC170_IMG07a.png</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="112" t="s">
         <v>158</v>
       </c>
-      <c r="J16" s="14"/>
-      <c r="K16" s="66" t="s">
-        <v>165</v>
+      <c r="J16" s="112"/>
+      <c r="K16" s="113" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="12" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="109" t="s">
         <v>156</v>
       </c>
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="110" t="s">
         <v>149</v>
       </c>
-      <c r="C17" s="22" t="str">
+      <c r="C17" s="111" t="str">
         <f t="shared" si="0"/>
         <v>Recurso M5A</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="112" t="s">
         <v>145</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="112" t="s">
         <v>146</v>
       </c>
-      <c r="F17" s="14" t="str">
+      <c r="F17" s="112" t="str">
         <f t="shared" si="1"/>
         <v>MA_11_02_REC170_IMG08n.png</v>
       </c>
-      <c r="G17" s="14" t="str">
+      <c r="G17" s="112" t="str">
         <f>IF(F17&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>286 x 286 px</v>
       </c>
-      <c r="H17" s="14" t="str">
+      <c r="H17" s="112" t="str">
         <f t="shared" si="2"/>
         <v>MA_11_02_REC170_IMG08a.png</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I17" s="112" t="s">
         <v>158</v>
       </c>
-      <c r="J17" s="66" t="s">
-        <v>166</v>
-      </c>
-      <c r="K17" s="15"/>
+      <c r="J17" s="113" t="s">
+        <v>165</v>
+      </c>
+      <c r="K17" s="114" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="18" spans="1:11" s="12" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="109" t="s">
         <v>157</v>
       </c>
-      <c r="B18" s="67" t="s">
+      <c r="B18" s="110" t="s">
         <v>149</v>
       </c>
-      <c r="C18" s="22" t="str">
+      <c r="C18" s="111" t="str">
         <f t="shared" si="0"/>
         <v>Recurso M5A</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="112" t="s">
         <v>145</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="112" t="s">
         <v>146</v>
       </c>
-      <c r="F18" s="14" t="str">
+      <c r="F18" s="112" t="str">
         <f t="shared" si="1"/>
         <v>MA_11_02_REC170_IMG09n.png</v>
       </c>
-      <c r="G18" s="14" t="str">
+      <c r="G18" s="112" t="str">
         <f>IF(F18&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>286 x 286 px</v>
       </c>
-      <c r="H18" s="14" t="str">
+      <c r="H18" s="112" t="str">
         <f t="shared" si="2"/>
         <v>MA_11_02_REC170_IMG09a.png</v>
       </c>
-      <c r="I18" s="14" t="s">
+      <c r="I18" s="112" t="s">
         <v>158</v>
       </c>
-      <c r="J18" s="66" t="s">
-        <v>166</v>
-      </c>
-      <c r="K18" s="15"/>
+      <c r="J18" s="113" t="s">
+        <v>165</v>
+      </c>
+      <c r="K18" s="114" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="19" spans="1:11" s="12" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
@@ -3984,25 +4039,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="88"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="33"/>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
       <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
@@ -4010,11 +4065,11 @@
         <v>43</v>
       </c>
       <c r="B3" s="33"/>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="95"/>
-      <c r="E3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="97"/>
       <c r="F3" s="34"/>
       <c r="H3" s="24" t="s">
         <v>18</v>
@@ -4065,11 +4120,11 @@
       <c r="C5" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="97" t="str">
+      <c r="D5" s="98" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>MA_11_02_CO</v>
       </c>
-      <c r="E5" s="98"/>
+      <c r="E5" s="99"/>
       <c r="F5" s="34"/>
       <c r="H5" s="24" t="s">
         <v>22</v>
@@ -4114,12 +4169,12 @@
       <c r="C7" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="83" t="str">
+      <c r="D7" s="84" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_MA_11_02_CO.xls</v>
       </c>
-      <c r="E7" s="83"/>
-      <c r="F7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="85"/>
       <c r="H7" s="24" t="s">
         <v>24</v>
       </c>
@@ -4213,14 +4268,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="85" t="s">
+      <c r="A13" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="87"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="88"/>
       <c r="I13" s="24" t="s">
         <v>33</v>
       </c>
@@ -4253,12 +4308,12 @@
         <v>46</v>
       </c>
       <c r="B15" s="33"/>
-      <c r="C15" s="88" t="s">
+      <c r="C15" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="90"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="91"/>
       <c r="J15" s="24">
         <v>12</v>
       </c>
@@ -4298,12 +4353,12 @@
       <c r="C17" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="91" t="str">
+      <c r="D17" s="92" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>MA_11_02_REC130</v>
       </c>
-      <c r="E17" s="92"/>
-      <c r="F17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="94"/>
       <c r="J17" s="24">
         <v>14</v>
       </c>
@@ -4319,12 +4374,12 @@
       <c r="C18" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="83" t="str">
+      <c r="D18" s="84" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_MA_11_02_REC130.xls</v>
       </c>
-      <c r="E18" s="83"/>
-      <c r="F18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="85"/>
       <c r="J18" s="24">
         <v>15</v>
       </c>
@@ -4716,41 +4771,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="99" t="s">
+      <c r="C1" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="99" t="s">
+      <c r="D1" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="99" t="s">
+      <c r="E1" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="99" t="s">
+      <c r="F1" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="99" t="s">
+      <c r="G1" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="100" t="s">
+      <c r="H1" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
       <c r="H2" s="43" t="s">
         <v>65</v>
       </c>

--- a/fuentes/contenidos/grado11/guion02/SolicitudGrafica-MA_11_02_CO_REC170.xlsx
+++ b/fuentes/contenidos/grado11/guion02/SolicitudGrafica-MA_11_02_CO_REC170.xlsx
@@ -728,7 +728,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -778,12 +778,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1300,7 +1294,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1473,18 +1467,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1569,41 +1581,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -2644,9 +2621,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2684,14 +2661,14 @@
       <c r="B2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="79"/>
-      <c r="F2" s="71" t="s">
+      <c r="D2" s="85"/>
+      <c r="F2" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="72"/>
+      <c r="G2" s="78"/>
       <c r="H2" s="42"/>
       <c r="I2" s="42"/>
       <c r="J2" s="16"/>
@@ -2701,12 +2678,12 @@
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="80">
+      <c r="C3" s="86">
         <v>11</v>
       </c>
-      <c r="D3" s="81"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="74"/>
+      <c r="D3" s="87"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="80"/>
       <c r="H3" s="42"/>
       <c r="I3" s="42"/>
       <c r="J3" s="16"/>
@@ -2716,10 +2693,10 @@
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="86" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="81"/>
+      <c r="D4" s="87"/>
       <c r="E4" s="5"/>
       <c r="F4" s="41" t="s">
         <v>55</v>
@@ -2737,10 +2714,10 @@
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="C5" s="88" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="83"/>
+      <c r="D5" s="89"/>
       <c r="E5" s="5"/>
       <c r="F5" s="39" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
@@ -2791,12 +2768,12 @@
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="75" t="s">
+      <c r="F8" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="77"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="83"/>
       <c r="J8" s="18"/>
       <c r="K8" s="12"/>
       <c r="L8" s="2"/>
@@ -2830,10 +2807,10 @@
       <c r="H9" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="70" t="s">
+      <c r="I9" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="J9" s="68" t="s">
+      <c r="J9" s="67" t="s">
         <v>6</v>
       </c>
       <c r="K9" s="21" t="s">
@@ -2841,345 +2818,345 @@
       </c>
     </row>
     <row r="10" spans="1:16" s="12" customFormat="1" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="102" t="s">
+      <c r="A10" s="69" t="s">
         <v>142</v>
       </c>
-      <c r="B10" s="103" t="s">
+      <c r="B10" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="104" t="str">
+      <c r="C10" s="71" t="str">
         <f>IF(OR(B10&lt;&gt;"",K10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Recurso M5A</v>
       </c>
-      <c r="D10" s="105" t="s">
+      <c r="D10" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="E10" s="105" t="s">
+      <c r="E10" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="F10" s="105" t="str">
+      <c r="F10" s="72" t="str">
         <f>IF(OR(B10&lt;&gt;"",K10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>MA_11_02_REC170_IMG01n.png</v>
       </c>
-      <c r="G10" s="105" t="str">
+      <c r="G10" s="72" t="str">
         <f>IF(F10&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>286 x 286 px</v>
       </c>
-      <c r="H10" s="105" t="str">
+      <c r="H10" s="72" t="str">
         <f>IF(AND(I10&lt;&gt;"",I10&lt;&gt;0),IF(OR(B10&lt;&gt;"",K10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>MA_11_02_REC170_IMG01a.png</v>
       </c>
-      <c r="I10" s="105" t="s">
+      <c r="I10" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="J10" s="106"/>
-      <c r="K10" s="107" t="s">
+      <c r="J10" s="73"/>
+      <c r="K10" s="74" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="12" customFormat="1" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="102" t="s">
+      <c r="A11" s="69" t="s">
         <v>150</v>
       </c>
-      <c r="B11" s="103" t="s">
+      <c r="B11" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="C11" s="104" t="str">
+      <c r="C11" s="71" t="str">
         <f t="shared" ref="C11:C18" si="0">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Recurso M5A</v>
       </c>
-      <c r="D11" s="105" t="s">
+      <c r="D11" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="E11" s="105" t="s">
+      <c r="E11" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="F11" s="105" t="str">
+      <c r="F11" s="72" t="str">
         <f t="shared" ref="F11:F18" si="1">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>MA_11_02_REC170_IMG02n.png</v>
       </c>
-      <c r="G11" s="105" t="str">
+      <c r="G11" s="72" t="str">
         <f>IF(F11&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>286 x 286 px</v>
       </c>
-      <c r="H11" s="105" t="str">
+      <c r="H11" s="72" t="str">
         <f t="shared" ref="H11:H18" si="2">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>MA_11_02_REC170_IMG02a.png</v>
       </c>
-      <c r="I11" s="105" t="s">
+      <c r="I11" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="J11" s="107"/>
-      <c r="K11" s="107" t="s">
+      <c r="J11" s="74"/>
+      <c r="K11" s="74" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="12" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="69" t="s">
         <v>151</v>
       </c>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="C12" s="22" t="str">
+      <c r="C12" s="71" t="str">
         <f t="shared" si="0"/>
         <v>Recurso M5A</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="F12" s="14" t="str">
+      <c r="F12" s="72" t="str">
         <f t="shared" si="1"/>
         <v>MA_11_02_REC170_IMG03n.png</v>
       </c>
-      <c r="G12" s="14" t="str">
+      <c r="G12" s="72" t="str">
         <f>IF(F12&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>286 x 286 px</v>
       </c>
-      <c r="H12" s="14" t="str">
+      <c r="H12" s="72" t="str">
         <f t="shared" si="2"/>
         <v>MA_11_02_REC170_IMG03a.png</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="J12" s="66" t="s">
+      <c r="J12" s="74" t="s">
         <v>162</v>
       </c>
-      <c r="K12" s="69"/>
+      <c r="K12" s="75"/>
     </row>
     <row r="13" spans="1:16" s="12" customFormat="1" ht="201" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="102" t="s">
+      <c r="A13" s="69" t="s">
         <v>152</v>
       </c>
-      <c r="B13" s="103" t="s">
+      <c r="B13" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="C13" s="104" t="str">
+      <c r="C13" s="71" t="str">
         <f t="shared" si="0"/>
         <v>Recurso M5A</v>
       </c>
-      <c r="D13" s="105" t="s">
+      <c r="D13" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="E13" s="105" t="s">
+      <c r="E13" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="F13" s="105" t="str">
+      <c r="F13" s="72" t="str">
         <f t="shared" si="1"/>
         <v>MA_11_02_REC170_IMG04n.png</v>
       </c>
-      <c r="G13" s="105" t="str">
+      <c r="G13" s="72" t="str">
         <f>IF(F13&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>286 x 286 px</v>
       </c>
-      <c r="H13" s="105" t="str">
+      <c r="H13" s="72" t="str">
         <f t="shared" si="2"/>
         <v>MA_11_02_REC170_IMG04a.png</v>
       </c>
-      <c r="I13" s="105" t="s">
+      <c r="I13" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107" t="s">
+      <c r="J13" s="74"/>
+      <c r="K13" s="74" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="12" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="102" t="s">
+      <c r="A14" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="B14" s="103" t="s">
+      <c r="B14" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="C14" s="104" t="str">
+      <c r="C14" s="71" t="str">
         <f t="shared" si="0"/>
         <v>Recurso M5A</v>
       </c>
-      <c r="D14" s="105" t="s">
+      <c r="D14" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="E14" s="105" t="s">
+      <c r="E14" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="F14" s="105" t="str">
+      <c r="F14" s="72" t="str">
         <f t="shared" si="1"/>
         <v>MA_11_02_REC170_IMG05n.png</v>
       </c>
-      <c r="G14" s="105" t="str">
+      <c r="G14" s="72" t="str">
         <f>IF(F14&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>286 x 286 px</v>
       </c>
-      <c r="H14" s="105" t="str">
+      <c r="H14" s="72" t="str">
         <f t="shared" si="2"/>
         <v>MA_11_02_REC170_IMG05a.png</v>
       </c>
-      <c r="I14" s="105" t="s">
+      <c r="I14" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="J14" s="107" t="s">
+      <c r="J14" s="74" t="s">
         <v>164</v>
       </c>
-      <c r="K14" s="108"/>
+      <c r="K14" s="75"/>
     </row>
     <row r="15" spans="1:16" s="12" customFormat="1" ht="218.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="102" t="s">
+      <c r="A15" s="69" t="s">
         <v>154</v>
       </c>
-      <c r="B15" s="103" t="s">
+      <c r="B15" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="C15" s="104" t="str">
+      <c r="C15" s="71" t="str">
         <f t="shared" si="0"/>
         <v>Recurso M5A</v>
       </c>
-      <c r="D15" s="105" t="s">
+      <c r="D15" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="E15" s="105" t="s">
+      <c r="E15" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="F15" s="105" t="str">
+      <c r="F15" s="72" t="str">
         <f t="shared" si="1"/>
         <v>MA_11_02_REC170_IMG06n.png</v>
       </c>
-      <c r="G15" s="105" t="str">
+      <c r="G15" s="72" t="str">
         <f>IF(F15&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>286 x 286 px</v>
       </c>
-      <c r="H15" s="105" t="str">
+      <c r="H15" s="72" t="str">
         <f t="shared" si="2"/>
         <v>MA_11_02_REC170_IMG06a.png</v>
       </c>
-      <c r="I15" s="105" t="s">
+      <c r="I15" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="J15" s="107" t="s">
+      <c r="J15" s="74" t="s">
         <v>164</v>
       </c>
-      <c r="K15" s="108"/>
+      <c r="K15" s="75"/>
     </row>
     <row r="16" spans="1:16" s="12" customFormat="1" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="109" t="s">
+      <c r="A16" s="69" t="s">
         <v>155</v>
       </c>
-      <c r="B16" s="110" t="s">
+      <c r="B16" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="C16" s="111" t="str">
+      <c r="C16" s="71" t="str">
         <f t="shared" si="0"/>
         <v>Recurso M5A</v>
       </c>
-      <c r="D16" s="112" t="s">
+      <c r="D16" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="E16" s="112" t="s">
+      <c r="E16" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="F16" s="112" t="str">
+      <c r="F16" s="72" t="str">
         <f t="shared" si="1"/>
         <v>MA_11_02_REC170_IMG07n.png</v>
       </c>
-      <c r="G16" s="112" t="str">
+      <c r="G16" s="72" t="str">
         <f>IF(F16&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>286 x 286 px</v>
       </c>
-      <c r="H16" s="112" t="str">
+      <c r="H16" s="72" t="str">
         <f t="shared" si="2"/>
         <v>MA_11_02_REC170_IMG07a.png</v>
       </c>
-      <c r="I16" s="112" t="s">
+      <c r="I16" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="J16" s="112"/>
-      <c r="K16" s="113" t="s">
+      <c r="J16" s="72"/>
+      <c r="K16" s="74" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="12" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="109" t="s">
+      <c r="A17" s="69" t="s">
         <v>156</v>
       </c>
-      <c r="B17" s="110" t="s">
+      <c r="B17" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="C17" s="111" t="str">
+      <c r="C17" s="71" t="str">
         <f t="shared" si="0"/>
         <v>Recurso M5A</v>
       </c>
-      <c r="D17" s="112" t="s">
+      <c r="D17" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="E17" s="112" t="s">
+      <c r="E17" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="F17" s="112" t="str">
+      <c r="F17" s="72" t="str">
         <f t="shared" si="1"/>
         <v>MA_11_02_REC170_IMG08n.png</v>
       </c>
-      <c r="G17" s="112" t="str">
+      <c r="G17" s="72" t="str">
         <f>IF(F17&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>286 x 286 px</v>
       </c>
-      <c r="H17" s="112" t="str">
+      <c r="H17" s="72" t="str">
         <f t="shared" si="2"/>
         <v>MA_11_02_REC170_IMG08a.png</v>
       </c>
-      <c r="I17" s="112" t="s">
+      <c r="I17" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="J17" s="113" t="s">
+      <c r="J17" s="74" t="s">
         <v>165</v>
       </c>
-      <c r="K17" s="114" t="s">
+      <c r="K17" s="76" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="12" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="109" t="s">
+      <c r="A18" s="69" t="s">
         <v>157</v>
       </c>
-      <c r="B18" s="110" t="s">
+      <c r="B18" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="C18" s="111" t="str">
+      <c r="C18" s="71" t="str">
         <f t="shared" si="0"/>
         <v>Recurso M5A</v>
       </c>
-      <c r="D18" s="112" t="s">
+      <c r="D18" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="E18" s="112" t="s">
+      <c r="E18" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="F18" s="112" t="str">
+      <c r="F18" s="72" t="str">
         <f t="shared" si="1"/>
         <v>MA_11_02_REC170_IMG09n.png</v>
       </c>
-      <c r="G18" s="112" t="str">
+      <c r="G18" s="72" t="str">
         <f>IF(F18&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>286 x 286 px</v>
       </c>
-      <c r="H18" s="112" t="str">
+      <c r="H18" s="72" t="str">
         <f t="shared" si="2"/>
         <v>MA_11_02_REC170_IMG09a.png</v>
       </c>
-      <c r="I18" s="112" t="s">
+      <c r="I18" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="J18" s="113" t="s">
+      <c r="J18" s="74" t="s">
         <v>165</v>
       </c>
-      <c r="K18" s="114" t="s">
+      <c r="K18" s="76" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="12" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
-      <c r="B19" s="67"/>
+      <c r="B19" s="66"/>
       <c r="C19" s="22"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
@@ -3192,7 +3169,7 @@
     </row>
     <row r="20" spans="1:11" s="12" customFormat="1" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
-      <c r="B20" s="67"/>
+      <c r="B20" s="66"/>
       <c r="C20" s="22"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
@@ -4039,25 +4016,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="94"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="33"/>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="97"/>
       <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
@@ -4065,11 +4042,11 @@
         <v>43</v>
       </c>
       <c r="B3" s="33"/>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="96"/>
-      <c r="E3" s="97"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="103"/>
       <c r="F3" s="34"/>
       <c r="H3" s="24" t="s">
         <v>18</v>
@@ -4120,11 +4097,11 @@
       <c r="C5" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="98" t="str">
+      <c r="D5" s="104" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>MA_11_02_CO</v>
       </c>
-      <c r="E5" s="99"/>
+      <c r="E5" s="105"/>
       <c r="F5" s="34"/>
       <c r="H5" s="24" t="s">
         <v>22</v>
@@ -4169,12 +4146,12 @@
       <c r="C7" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="84" t="str">
+      <c r="D7" s="90" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_MA_11_02_CO.xls</v>
       </c>
-      <c r="E7" s="84"/>
-      <c r="F7" s="85"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="91"/>
       <c r="H7" s="24" t="s">
         <v>24</v>
       </c>
@@ -4268,14 +4245,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="86" t="s">
+      <c r="A13" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="88"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="94"/>
       <c r="I13" s="24" t="s">
         <v>33</v>
       </c>
@@ -4308,12 +4285,12 @@
         <v>46</v>
       </c>
       <c r="B15" s="33"/>
-      <c r="C15" s="89" t="s">
+      <c r="C15" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="91"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="97"/>
       <c r="J15" s="24">
         <v>12</v>
       </c>
@@ -4353,12 +4330,12 @@
       <c r="C17" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="92" t="str">
+      <c r="D17" s="98" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>MA_11_02_REC130</v>
       </c>
-      <c r="E17" s="93"/>
-      <c r="F17" s="94"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="100"/>
       <c r="J17" s="24">
         <v>14</v>
       </c>
@@ -4374,12 +4351,12 @@
       <c r="C18" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="84" t="str">
+      <c r="D18" s="90" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_MA_11_02_REC130.xls</v>
       </c>
-      <c r="E18" s="84"/>
-      <c r="F18" s="85"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="91"/>
       <c r="J18" s="24">
         <v>15</v>
       </c>
@@ -4771,41 +4748,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="100" t="s">
+      <c r="C1" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="100" t="s">
+      <c r="E1" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="100" t="s">
+      <c r="F1" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="100" t="s">
+      <c r="G1" s="106" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="101" t="s">
+      <c r="H1" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="100"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
       <c r="H2" s="43" t="s">
         <v>65</v>
       </c>
